--- a/xlsx/country_comparison/understood_score_mean.xlsx
+++ b/xlsx/country_comparison/understood_score_mean.xlsx
@@ -32,7 +32,7 @@
     <t xml:space="preserve">United States</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of correct answers to understanding questions</t>
+    <t xml:space="preserve">Number of correct answers&lt;br&gt;to understanding questions</t>
   </si>
 </sst>
 </file>
@@ -389,19 +389,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>1.61194029850746</v>
+        <v>1.6830985915493</v>
       </c>
       <c r="C2" t="n">
-        <v>2.2258064516129</v>
+        <v>2.02209944751381</v>
       </c>
       <c r="D2" t="n">
-        <v>2.17241379310345</v>
+        <v>2.14754098360656</v>
       </c>
       <c r="E2" t="n">
-        <v>1.5</v>
+        <v>1.58695652173913</v>
       </c>
       <c r="F2" t="n">
-        <v>1.56976744186047</v>
+        <v>1.85621909471282</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/understood_score_mean.xlsx
+++ b/xlsx/country_comparison/understood_score_mean.xlsx
@@ -389,19 +389,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>1.6830985915493</v>
+        <v>1.9758064516129</v>
       </c>
       <c r="C2" t="n">
-        <v>2.02209944751381</v>
+        <v>2.07397622192867</v>
       </c>
       <c r="D2" t="n">
-        <v>2.14754098360656</v>
+        <v>2.03683241252302</v>
       </c>
       <c r="E2" t="n">
-        <v>1.58695652173913</v>
+        <v>1.9860248447205</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85621909471282</v>
+        <v>1.85319712447976</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/understood_score_mean.xlsx
+++ b/xlsx/country_comparison/understood_score_mean.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -27,9 +33,6 @@
   </si>
   <si>
     <t xml:space="preserve">United Kingdom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">United States</t>
   </si>
   <si>
     <t xml:space="preserve">Number of correct answers&lt;br&gt;to understanding questions</t>
@@ -383,25 +386,31 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.9758064516129</v>
+        <v>1.8494902319078</v>
       </c>
       <c r="C2" t="n">
-        <v>2.07397622192867</v>
+        <v>2.02359939170792</v>
       </c>
       <c r="D2" t="n">
-        <v>2.03683241252302</v>
+        <v>2.01467226541881</v>
       </c>
       <c r="E2" t="n">
-        <v>1.9860248447205</v>
+        <v>2.08066515783506</v>
       </c>
       <c r="F2" t="n">
-        <v>1.85319712447976</v>
+        <v>2.01415731075008</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1.96369579985794</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/understood_score_mean.xlsx
+++ b/xlsx/country_comparison/understood_score_mean.xlsx
@@ -395,22 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.8494902319078</v>
+        <v>1.82795260772851</v>
       </c>
       <c r="C2" t="n">
-        <v>2.02359939170792</v>
+        <v>2.00933745573832</v>
       </c>
       <c r="D2" t="n">
-        <v>2.01467226541881</v>
+        <v>2.00300778136825</v>
       </c>
       <c r="E2" t="n">
-        <v>2.08066515783506</v>
+        <v>2.04630587673433</v>
       </c>
       <c r="F2" t="n">
-        <v>2.01415731075008</v>
+        <v>2.01768181464337</v>
       </c>
       <c r="G2" t="n">
-        <v>1.96369579985794</v>
+        <v>1.97325178388569</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/understood_score_mean.xlsx
+++ b/xlsx/country_comparison/understood_score_mean.xlsx
@@ -35,7 +35,7 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">Number of correct answers&lt;br&gt;to understanding questions</t>
+    <t xml:space="preserve">Number of correct answers to understanding questions</t>
   </si>
 </sst>
 </file>
@@ -395,22 +395,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>1.82795260772851</v>
+        <v>1.8165125896307</v>
       </c>
       <c r="C2" t="n">
-        <v>2.00933745573832</v>
+        <v>2.00749161255324</v>
       </c>
       <c r="D2" t="n">
-        <v>2.00300778136825</v>
+        <v>2.0031316992304</v>
       </c>
       <c r="E2" t="n">
-        <v>2.04630587673433</v>
+        <v>2.04639050298212</v>
       </c>
       <c r="F2" t="n">
-        <v>2.01768181464337</v>
+        <v>1.96623349184666</v>
       </c>
       <c r="G2" t="n">
-        <v>1.97325178388569</v>
+        <v>1.97324334759733</v>
       </c>
     </row>
   </sheetData>
